--- a/biology/Médecine/Liste_de_benzodiazépines/Liste_de_benzodiazépines.xlsx
+++ b/biology/Médecine/Liste_de_benzodiazépines/Liste_de_benzodiazépines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_benzodiaz%C3%A9pines</t>
+          <t>Liste_de_benzodiazépines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tableau qui suit donne une liste de benzodiazépines.
 Pour chaque molécule sont indiqués :
@@ -491,9 +503,9 @@
 celles qui ont une demi-vie courte et qui seront utilisées comme hypnotique ou comme prémédication pour une anesthésie,
 celles qui ont une demi-vie intermédiaire qui seront utilisées pour les personnes souffrant d'anxiété de façon régulière ou les personnes ayant un sommeil de mauvaise qualité,
 celles qui ont une demi-vie longue, qui sont adaptées pour les mêmes cas que les benzodiazépines à demi-vie intermédiaire, mais également comme benzodiazépines de choix pour le sevrage à ces dernières. Le diazépam et le prazépam du fait de leur demi-vie longue (36-200 heures) sont particulièrement adaptés dans ce cas ;
-l'indication ou les indications principales pour chacune des benzodiazépines[1]. Pour certaines benzodiazépines, plusieurs indications sont associées, cela souligne leur caractère multifonctionnel.
+l'indication ou les indications principales pour chacune des benzodiazépines. Pour certaines benzodiazépines, plusieurs indications sont associées, cela souligne leur caractère multifonctionnel.
 Les benzodiazépines partagent toujours ces cinq propriétés dont certaines seront plus prononcées selon la benzodiazépine : anxiolytique, hypnotique, anticonvulsivant, myorelaxant, amnésiant ;
-l'équivalence[1], c'est-à-dire le dosage correspondant d'une benzodiazépine à une autre est très utile pour comparer les benzodiazépines entre elles. L'équivalence de référence[réf. nécessaire] est « 10 milligrammes de diazépam » ;
+l'équivalence, c'est-à-dire le dosage correspondant d'une benzodiazépine à une autre est très utile pour comparer les benzodiazépines entre elles. L'équivalence de référence[réf. nécessaire] est « 10 milligrammes de diazépam » ;
 Les benzodiazépines commercialisées en France apparaissent en surbrillance et en caractère gras.
 </t>
         </is>
